--- a/data/Venn_Diagrams/Ensemble_data/ENSEMBLE_NON_CODING_VENN_DATA.xlsx
+++ b/data/Venn_Diagrams/Ensemble_data/ENSEMBLE_NON_CODING_VENN_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +779,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENSG00000269893</t>
+          <t>ENSG00000203875</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENSG00000221164</t>
+          <t>ENSG00000269893</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENSG00000200183</t>
+          <t>ENSG00000221164</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -866,7 +866,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENSG00000272599</t>
+          <t>ENSG00000200183</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -895,12 +895,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENSG00000215030</t>
+          <t>ENSG00000272599</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENSG00000250170</t>
+          <t>ENSG00000234741</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -912,7 +912,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ENSG00000248489</t>
+          <t>ENSG00000186235</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -924,12 +924,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENSG00000277383</t>
+          <t>ENSG00000215030</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENSG00000253683</t>
+          <t>ENSG00000250170</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ENSG00000252965</t>
+          <t>ENSG00000248489</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENSG00000225630</t>
+          <t>ENSG00000277383</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENSG00000256393</t>
+          <t>ENSG00000253683</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -970,7 +970,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ENSG00000255559</t>
+          <t>ENSG00000252965</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -982,12 +982,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENSG00000228797</t>
+          <t>ENSG00000225630</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENSG00000265735</t>
+          <t>ENSG00000256393</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ENSG00000272086</t>
+          <t>ENSG00000255559</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1011,12 +1011,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENSG00000226085</t>
+          <t>ENSG00000228797</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENSG00000272918</t>
+          <t>ENSG00000265735</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ENSG00000258920</t>
+          <t>ENSG00000272086</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1040,12 +1040,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENSG00000236535</t>
+          <t>ENSG00000226085</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENSG00000252498</t>
+          <t>ENSG00000272918</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1057,24 +1057,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ENSG00000278743</t>
+          <t>ENSG00000258920</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ENSG00000247240</t>
+          <t>ENSG00000225062</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENSG00000228205</t>
+          <t>ENSG00000236535</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENSG00000248727</t>
+          <t>ENSG00000252498</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1086,24 +1086,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ENSG00000198658</t>
+          <t>ENSG00000278743</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ENSG00000257698</t>
+          <t>ENSG00000247240</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENSG00000240877</t>
+          <t>ENSG00000228205</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENSG00000273017</t>
+          <t>ENSG00000248727</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1115,24 +1115,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ENSG00000250878</t>
+          <t>ENSG00000198658</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ENSG00000237576</t>
+          <t>ENSG00000257698</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ENSG00000224672</t>
+          <t>ENSG00000240877</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENSG00000236723</t>
+          <t>ENSG00000273017</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1144,24 +1144,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ENSG00000276758</t>
+          <t>ENSG00000250878</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ENSG00000203799</t>
+          <t>ENSG00000237576</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENSG00000278771</t>
+          <t>ENSG00000224672</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENSG00000241678</t>
+          <t>ENSG00000236723</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1169,24 +1169,24 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ENSG00000229054</t>
+          <t>ENSG00000276758</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ENSG00000213080</t>
+          <t>ENSG00000203799</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ENSG00000241772</t>
+          <t>ENSG00000278771</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENSG00000213613</t>
+          <t>ENSG00000241678</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1194,24 +1194,24 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ENSG00000235374</t>
+          <t>ENSG00000229054</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ENSG00000198618</t>
+          <t>ENSG00000213080</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENSG00000222020</t>
+          <t>ENSG00000241772</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENSG00000254325</t>
+          <t>ENSG00000213613</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1219,24 +1219,24 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ENSG00000259635</t>
+          <t>ENSG00000235374</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ENSG00000200257</t>
+          <t>ENSG00000198618</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ENSG00000202382</t>
+          <t>ENSG00000222020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ENSG00000253372</t>
+          <t>ENSG00000254325</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1244,24 +1244,24 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ENSG00000226981</t>
+          <t>ENSG00000259635</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ENSG00000234648</t>
+          <t>ENSG00000200257</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENSG00000231351</t>
+          <t>ENSG00000202382</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ENSG00000272953</t>
+          <t>ENSG00000253372</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1269,24 +1269,24 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ENSG00000229585</t>
+          <t>ENSG00000226981</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ENSG00000235652</t>
+          <t>ENSG00000234648</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ENSG00000267672</t>
+          <t>ENSG00000231351</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ENSG00000222057</t>
+          <t>ENSG00000272953</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1294,24 +1294,24 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ENSG00000199627</t>
+          <t>ENSG00000229585</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ENSG00000254789</t>
+          <t>ENSG00000235652</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ENSG00000276791</t>
+          <t>ENSG00000267672</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENSG00000235531</t>
+          <t>ENSG00000222057</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1319,24 +1319,24 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ENSG00000257337</t>
+          <t>ENSG00000199627</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ENSG00000272716</t>
+          <t>ENSG00000254789</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENSG00000224442</t>
+          <t>ENSG00000276791</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENSG00000214389</t>
+          <t>ENSG00000235531</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1344,24 +1344,24 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ENSG00000230107</t>
+          <t>ENSG00000257337</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ENSG00000262495</t>
+          <t>ENSG00000272716</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENSG00000273599</t>
+          <t>ENSG00000224442</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENSG00000264281</t>
+          <t>ENSG00000214389</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1369,24 +1369,24 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ENSG00000212536</t>
+          <t>ENSG00000230107</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ENSG00000260490</t>
+          <t>ENSG00000262495</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENSG00000257246</t>
+          <t>ENSG00000273599</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENSG00000260778</t>
+          <t>ENSG00000264281</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1394,24 +1394,24 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ENSG00000269899</t>
+          <t>ENSG00000212536</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ENSG00000261220</t>
+          <t>ENSG00000260490</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ENSG00000272256</t>
+          <t>ENSG00000257246</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENSG00000237039</t>
+          <t>ENSG00000260778</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1419,45 +1419,49 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ENSG00000240750</t>
+          <t>ENSG00000269899</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ENSG00000230002</t>
+          <t>ENSG00000261220</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENSG00000272677</t>
+          <t>ENSG00000272256</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ENSG00000241782</t>
+          <t>ENSG00000237039</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ENSG00000240750</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ENSG00000257595</t>
+          <t>ENSG00000230002</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENSG00000237842</t>
+          <t>ENSG00000272677</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ENSG00000231680</t>
+          <t>ENSG00000241782</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1466,19 +1470,19 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ENSG00000227082</t>
+          <t>ENSG00000257595</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ENSG00000222858</t>
+          <t>ENSG00000237842</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ENSG00000266805</t>
+          <t>ENSG00000231680</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1487,19 +1491,19 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ENSG00000258365</t>
+          <t>ENSG00000227082</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENSG00000270210</t>
+          <t>ENSG00000222858</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ENSG00000283674</t>
+          <t>ENSG00000266805</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1508,19 +1512,19 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ENSG00000273361</t>
+          <t>ENSG00000258365</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENSG00000265393</t>
+          <t>ENSG00000270210</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ENSG00000272821</t>
+          <t>ENSG00000283674</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1529,19 +1533,19 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ENSG00000212588</t>
+          <t>ENSG00000273361</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ENSG00000244710</t>
+          <t>ENSG00000265393</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ENSG00000264017</t>
+          <t>ENSG00000272821</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1550,19 +1554,19 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ENSG00000260742</t>
+          <t>ENSG00000212588</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ENSG00000232229</t>
+          <t>ENSG00000244710</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ENSG00000154898</t>
+          <t>ENSG00000264017</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1571,19 +1575,19 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ENSG00000231125</t>
+          <t>ENSG00000254887</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ENSG00000248791</t>
+          <t>ENSG00000232229</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ENSG00000212385</t>
+          <t>ENSG00000154898</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1592,19 +1596,19 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ENSG00000267711</t>
+          <t>ENSG00000260742</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ENSG00000270802</t>
+          <t>ENSG00000248791</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ENSG00000200953</t>
+          <t>ENSG00000212385</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1613,19 +1617,19 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ENSG00000235908</t>
+          <t>ENSG00000231125</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ENSG00000239040</t>
+          <t>ENSG00000270802</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ENSG00000240531</t>
+          <t>ENSG00000200953</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1634,45 +1638,57 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ENSG00000253676</t>
+          <t>ENSG00000267711</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ENSG00000207003</t>
+          <t>ENSG00000239040</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ENSG00000183298</t>
+          <t>ENSG00000240531</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ENSG00000235908</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ENSG00000207003</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ENSG00000174715</t>
+          <t>ENSG00000183298</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ENSG00000253676</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ENSG00000221263</t>
+          <t>ENSG00000174715</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1685,7 +1701,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ENSG00000277602</t>
+          <t>ENSG00000221263</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1698,7 +1714,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ENSG00000274422</t>
+          <t>ENSG00000277602</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1711,7 +1727,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ENSG00000238103</t>
+          <t>ENSG00000274422</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1724,7 +1740,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENSG00000206651</t>
+          <t>ENSG00000238103</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1737,7 +1753,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ENSG00000237550</t>
+          <t>ENSG00000206651</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1750,7 +1766,7 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ENSG00000219395</t>
+          <t>ENSG00000237550</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1763,7 +1779,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ENSG00000274765</t>
+          <t>ENSG00000219395</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1776,7 +1792,7 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ENSG00000213326</t>
+          <t>ENSG00000274765</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1789,7 +1805,7 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ENSG00000253043</t>
+          <t>ENSG00000213326</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1802,7 +1818,7 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ENSG00000250197</t>
+          <t>ENSG00000253043</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1815,7 +1831,7 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ENSG00000233411</t>
+          <t>ENSG00000250197</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1828,7 +1844,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ENSG00000261308</t>
+          <t>ENSG00000233411</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1841,7 +1857,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ENSG00000214485</t>
+          <t>ENSG00000261308</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1854,7 +1870,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ENSG00000227063</t>
+          <t>ENSG00000214485</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1867,7 +1883,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ENSG00000261461</t>
+          <t>ENSG00000227063</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1880,7 +1896,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ENSG00000212257</t>
+          <t>ENSG00000261461</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1893,7 +1909,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ENSG00000217416</t>
+          <t>ENSG00000212257</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1906,7 +1922,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ENSG00000277007</t>
+          <t>ENSG00000217416</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1919,7 +1935,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ENSG00000223551</t>
+          <t>ENSG00000277007</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1932,7 +1948,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ENSG00000267412</t>
+          <t>ENSG00000226891</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1945,7 +1961,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ENSG00000243175</t>
+          <t>ENSG00000223551</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1958,7 +1974,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ENSG00000259767</t>
+          <t>ENSG00000267412</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1971,7 +1987,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ENSG00000270878</t>
+          <t>ENSG00000243175</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1984,7 +2000,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ENSG00000242737</t>
+          <t>ENSG00000259767</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1997,7 +2013,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ENSG00000260920</t>
+          <t>ENSG00000270878</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2010,7 +2026,7 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ENSG00000244398</t>
+          <t>ENSG00000242737</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2023,7 +2039,7 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ENSG00000239912</t>
+          <t>ENSG00000260920</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2036,7 +2052,7 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ENSG00000238231</t>
+          <t>ENSG00000244398</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2049,7 +2065,7 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ENSG00000237135</t>
+          <t>ENSG00000239912</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2062,7 +2078,7 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ENSG00000204177</t>
+          <t>ENSG00000238231</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2075,7 +2091,7 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ENSG00000243560</t>
+          <t>ENSG00000237135</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2088,7 +2104,7 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ENSG00000244327</t>
+          <t>ENSG00000204177</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ENSG00000180764</t>
+          <t>ENSG00000243560</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2114,7 +2130,7 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ENSG00000282100</t>
+          <t>ENSG00000244327</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2127,7 +2143,7 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ENSG00000271009</t>
+          <t>ENSG00000180764</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2140,7 +2156,7 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ENSG00000253430</t>
+          <t>ENSG00000282100</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2153,7 +2169,7 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ENSG00000241431</t>
+          <t>ENSG00000271009</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -2166,7 +2182,7 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ENSG00000228502</t>
+          <t>ENSG00000253430</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2179,7 +2195,7 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ENSG00000202150</t>
+          <t>ENSG00000241431</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2192,7 +2208,7 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ENSG00000220749</t>
+          <t>ENSG00000228502</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -2205,7 +2221,7 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ENSG00000230291</t>
+          <t>ENSG00000202150</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2218,7 +2234,7 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ENSG00000274213</t>
+          <t>ENSG00000220749</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -2227,6 +2243,32 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ENSG00000230291</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ENSG00000274213</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
